--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H2">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.39059077728059</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="N2">
-        <v>84.39059077728059</v>
+        <v>703.744147</v>
       </c>
       <c r="O2">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="P2">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="Q2">
-        <v>993.0102680791401</v>
+        <v>8655.969262546507</v>
       </c>
       <c r="R2">
-        <v>993.0102680791401</v>
+        <v>77903.72336291856</v>
       </c>
       <c r="S2">
-        <v>0.4736244338640348</v>
+        <v>0.7081676734686511</v>
       </c>
       <c r="T2">
-        <v>0.4736244338640348</v>
+        <v>0.7081676734686511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H3">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.01578921743332</v>
+        <v>2.110333333333333</v>
       </c>
       <c r="N3">
-        <v>2.01578921743332</v>
+        <v>6.331</v>
       </c>
       <c r="O3">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="P3">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="Q3">
-        <v>23.71946176413536</v>
+        <v>77.87054661099999</v>
       </c>
       <c r="R3">
-        <v>23.71946176413536</v>
+        <v>700.8349194989999</v>
       </c>
       <c r="S3">
-        <v>0.01131319283468165</v>
+        <v>0.006370794783647458</v>
       </c>
       <c r="T3">
-        <v>0.01131319283468165</v>
+        <v>0.006370794783647458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H4">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I4">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J4">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.3183178354779</v>
+        <v>3.099218</v>
       </c>
       <c r="N4">
-        <v>2.3183178354779</v>
+        <v>9.297654</v>
       </c>
       <c r="O4">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="P4">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="Q4">
-        <v>27.27926649282719</v>
+        <v>114.360037779174</v>
       </c>
       <c r="R4">
-        <v>27.27926649282719</v>
+        <v>1029.240340012566</v>
       </c>
       <c r="S4">
-        <v>0.01301107104751682</v>
+        <v>0.009356096288636696</v>
       </c>
       <c r="T4">
-        <v>0.01301107104751682</v>
+        <v>0.009356096288636696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H5">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.39059077728059</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="N5">
-        <v>84.39059077728059</v>
+        <v>703.744147</v>
       </c>
       <c r="O5">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="P5">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="Q5">
-        <v>275.2397043844478</v>
+        <v>791.6697061447976</v>
       </c>
       <c r="R5">
-        <v>275.2397043844478</v>
+        <v>7125.027355303178</v>
       </c>
       <c r="S5">
-        <v>0.1312778461174976</v>
+        <v>0.06476858650388025</v>
       </c>
       <c r="T5">
-        <v>0.1312778461174976</v>
+        <v>0.06476858650388025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H6">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J6">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.01578921743332</v>
+        <v>2.110333333333333</v>
       </c>
       <c r="N6">
-        <v>2.01578921743332</v>
+        <v>6.331</v>
       </c>
       <c r="O6">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="P6">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="Q6">
-        <v>6.574491577763347</v>
+        <v>7.121993029666666</v>
       </c>
       <c r="R6">
-        <v>6.574491577763347</v>
+        <v>64.09793726699999</v>
       </c>
       <c r="S6">
-        <v>0.003135757958963891</v>
+        <v>0.0005826690323522732</v>
       </c>
       <c r="T6">
-        <v>0.003135757958963891</v>
+        <v>0.0005826690323522732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H7">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J7">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.3183178354779</v>
+        <v>3.099218</v>
       </c>
       <c r="N7">
-        <v>2.3183178354779</v>
+        <v>9.297654</v>
       </c>
       <c r="O7">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="P7">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="Q7">
-        <v>7.561187921887565</v>
+        <v>10.459299791542</v>
       </c>
       <c r="R7">
-        <v>7.561187921887565</v>
+        <v>94.13369812387799</v>
       </c>
       <c r="S7">
-        <v>0.003606370914744829</v>
+        <v>0.0008557028999093732</v>
       </c>
       <c r="T7">
-        <v>0.003606370914744829</v>
+        <v>0.0008557028999093732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.60228585853633</v>
+        <v>10.699319</v>
       </c>
       <c r="H8">
-        <v>8.60228585853633</v>
+        <v>32.097957</v>
       </c>
       <c r="I8">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="J8">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.39059077728059</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="N8">
-        <v>84.39059077728059</v>
+        <v>703.744147</v>
       </c>
       <c r="O8">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="P8">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="Q8">
-        <v>725.9519856369272</v>
+        <v>2509.861041045298</v>
       </c>
       <c r="R8">
-        <v>725.9519856369272</v>
+        <v>22588.74936940768</v>
       </c>
       <c r="S8">
-        <v>0.3462487843905754</v>
+        <v>0.2053383509409274</v>
       </c>
       <c r="T8">
-        <v>0.3462487843905754</v>
+        <v>0.2053383509409274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.60228585853633</v>
+        <v>10.699319</v>
       </c>
       <c r="H9">
-        <v>8.60228585853633</v>
+        <v>32.097957</v>
       </c>
       <c r="I9">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="J9">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.01578921743332</v>
+        <v>2.110333333333333</v>
       </c>
       <c r="N9">
-        <v>2.01578921743332</v>
+        <v>6.331</v>
       </c>
       <c r="O9">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="P9">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="Q9">
-        <v>17.34039507891666</v>
+        <v>22.57912952966667</v>
       </c>
       <c r="R9">
-        <v>17.34039507891666</v>
+        <v>203.212165767</v>
       </c>
       <c r="S9">
-        <v>0.008270644389324745</v>
+        <v>0.001847258134009051</v>
       </c>
       <c r="T9">
-        <v>0.008270644389324745</v>
+        <v>0.001847258134009051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.60228585853633</v>
+        <v>10.699319</v>
       </c>
       <c r="H10">
-        <v>8.60228585853633</v>
+        <v>32.097957</v>
       </c>
       <c r="I10">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="J10">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.3183178354779</v>
+        <v>3.099218</v>
       </c>
       <c r="N10">
-        <v>2.3183178354779</v>
+        <v>9.297654</v>
       </c>
       <c r="O10">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="P10">
-        <v>0.02612934044492184</v>
+        <v>0.01292466713653245</v>
       </c>
       <c r="Q10">
-        <v>19.9428327317241</v>
+        <v>33.159522032542</v>
       </c>
       <c r="R10">
-        <v>19.9428327317241</v>
+        <v>298.435698292878</v>
       </c>
       <c r="S10">
-        <v>0.009511898482660198</v>
+        <v>0.002712867947986383</v>
       </c>
       <c r="T10">
-        <v>0.009511898482660198</v>
+        <v>0.002712867947986383</v>
       </c>
     </row>
   </sheetData>
